--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03450166666666667</v>
+        <v>1.52558</v>
       </c>
       <c r="H2">
-        <v>0.103505</v>
+        <v>4.57674</v>
       </c>
       <c r="I2">
-        <v>0.01971168248317875</v>
+        <v>0.8891290081558957</v>
       </c>
       <c r="J2">
-        <v>0.01971168248317875</v>
+        <v>0.8891290081558957</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.452293666666667</v>
+        <v>1.424719</v>
       </c>
       <c r="N2">
-        <v>4.356881</v>
+        <v>4.274157</v>
       </c>
       <c r="O2">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="P2">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="Q2">
-        <v>0.05010655198944445</v>
+        <v>2.17352281202</v>
       </c>
       <c r="R2">
-        <v>0.4509589679050001</v>
+        <v>19.56170530818</v>
       </c>
       <c r="S2">
-        <v>0.001489437708444808</v>
+        <v>0.06600270310195963</v>
       </c>
       <c r="T2">
-        <v>0.001489437708444808</v>
+        <v>0.06600270310195963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03450166666666667</v>
+        <v>1.52558</v>
       </c>
       <c r="H3">
-        <v>0.103505</v>
+        <v>4.57674</v>
       </c>
       <c r="I3">
-        <v>0.01971168248317875</v>
+        <v>0.8891290081558957</v>
       </c>
       <c r="J3">
-        <v>0.01971168248317875</v>
+        <v>0.8891290081558957</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>32.221955</v>
       </c>
       <c r="O3">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="P3">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="Q3">
-        <v>0.3705703835861111</v>
+        <v>16.38572336963333</v>
       </c>
       <c r="R3">
-        <v>3.335133452275</v>
+        <v>147.4715103267</v>
       </c>
       <c r="S3">
-        <v>0.01101535589721448</v>
+        <v>0.4975802548267889</v>
       </c>
       <c r="T3">
-        <v>0.01101535589721448</v>
+        <v>0.4975802548267889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03450166666666667</v>
+        <v>1.52558</v>
       </c>
       <c r="H4">
-        <v>0.103505</v>
+        <v>4.57674</v>
       </c>
       <c r="I4">
-        <v>0.01971168248317875</v>
+        <v>0.8891290081558957</v>
       </c>
       <c r="J4">
-        <v>0.01971168248317875</v>
+        <v>0.8891290081558957</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.027161333333333</v>
+        <v>7.027161333333335</v>
       </c>
       <c r="N4">
         <v>21.081484</v>
       </c>
       <c r="O4">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706553</v>
       </c>
       <c r="P4">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706552</v>
       </c>
       <c r="Q4">
-        <v>0.2424487779355556</v>
+        <v>10.72049678690667</v>
       </c>
       <c r="R4">
-        <v>2.18203900142</v>
+        <v>96.48447108216001</v>
       </c>
       <c r="S4">
-        <v>0.007206888877519462</v>
+        <v>0.3255460502271472</v>
       </c>
       <c r="T4">
-        <v>0.007206888877519464</v>
+        <v>0.3255460502271471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.52558</v>
+        <v>0.190234</v>
       </c>
       <c r="H5">
-        <v>4.57674</v>
+        <v>0.570702</v>
       </c>
       <c r="I5">
-        <v>0.871602779460543</v>
+        <v>0.1108709918441043</v>
       </c>
       <c r="J5">
-        <v>0.871602779460543</v>
+        <v>0.1108709918441043</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.452293666666667</v>
+        <v>1.424719</v>
       </c>
       <c r="N5">
-        <v>4.356881</v>
+        <v>4.274157</v>
       </c>
       <c r="O5">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="P5">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="Q5">
-        <v>2.215590171993334</v>
+        <v>0.271029994246</v>
       </c>
       <c r="R5">
-        <v>19.94031154794</v>
+        <v>2.439269948214</v>
       </c>
       <c r="S5">
-        <v>0.06585932213658943</v>
+        <v>0.008230285020712247</v>
       </c>
       <c r="T5">
-        <v>0.06585932213658943</v>
+        <v>0.008230285020712247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.52558</v>
+        <v>0.190234</v>
       </c>
       <c r="H6">
-        <v>4.57674</v>
+        <v>0.570702</v>
       </c>
       <c r="I6">
-        <v>0.871602779460543</v>
+        <v>0.1108709918441043</v>
       </c>
       <c r="J6">
-        <v>0.871602779460543</v>
+        <v>0.1108709918441043</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>32.221955</v>
       </c>
       <c r="O6">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="P6">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="Q6">
-        <v>16.38572336963333</v>
+        <v>2.043237129156667</v>
       </c>
       <c r="R6">
-        <v>147.4715103267</v>
+        <v>18.38913416241</v>
       </c>
       <c r="S6">
-        <v>0.4870723148545229</v>
+        <v>0.06204635757988396</v>
       </c>
       <c r="T6">
-        <v>0.4870723148545229</v>
+        <v>0.06204635757988396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.52558</v>
+        <v>0.190234</v>
       </c>
       <c r="H7">
-        <v>4.57674</v>
+        <v>0.570702</v>
       </c>
       <c r="I7">
-        <v>0.871602779460543</v>
+        <v>0.1108709918441043</v>
       </c>
       <c r="J7">
-        <v>0.871602779460543</v>
+        <v>0.1108709918441043</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.027161333333333</v>
+        <v>7.027161333333335</v>
       </c>
       <c r="N7">
         <v>21.081484</v>
       </c>
       <c r="O7">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706553</v>
       </c>
       <c r="P7">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706552</v>
       </c>
       <c r="Q7">
-        <v>10.72049678690666</v>
+        <v>1.336805009085334</v>
       </c>
       <c r="R7">
-        <v>96.48447108216</v>
+        <v>12.031245081768</v>
       </c>
       <c r="S7">
-        <v>0.3186711424694307</v>
+        <v>0.04059434924350813</v>
       </c>
       <c r="T7">
-        <v>0.3186711424694307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.190234</v>
-      </c>
-      <c r="H8">
-        <v>0.570702</v>
-      </c>
-      <c r="I8">
-        <v>0.1086855380562782</v>
-      </c>
-      <c r="J8">
-        <v>0.1086855380562782</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.452293666666667</v>
-      </c>
-      <c r="N8">
-        <v>4.356881</v>
-      </c>
-      <c r="O8">
-        <v>0.07556116580691888</v>
-      </c>
-      <c r="P8">
-        <v>0.07556116580691888</v>
-      </c>
-      <c r="Q8">
-        <v>0.2762756333846667</v>
-      </c>
-      <c r="R8">
-        <v>2.486480700462001</v>
-      </c>
-      <c r="S8">
-        <v>0.008212405961884632</v>
-      </c>
-      <c r="T8">
-        <v>0.008212405961884632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.190234</v>
-      </c>
-      <c r="H9">
-        <v>0.570702</v>
-      </c>
-      <c r="I9">
-        <v>0.1086855380562782</v>
-      </c>
-      <c r="J9">
-        <v>0.1086855380562782</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.74065166666667</v>
-      </c>
-      <c r="N9">
-        <v>32.221955</v>
-      </c>
-      <c r="O9">
-        <v>0.5588237283455937</v>
-      </c>
-      <c r="P9">
-        <v>0.5588237283455937</v>
-      </c>
-      <c r="Q9">
-        <v>2.043237129156667</v>
-      </c>
-      <c r="R9">
-        <v>18.38913416241</v>
-      </c>
-      <c r="S9">
-        <v>0.06073605759385631</v>
-      </c>
-      <c r="T9">
-        <v>0.06073605759385631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.190234</v>
-      </c>
-      <c r="H10">
-        <v>0.570702</v>
-      </c>
-      <c r="I10">
-        <v>0.1086855380562782</v>
-      </c>
-      <c r="J10">
-        <v>0.1086855380562782</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.027161333333333</v>
-      </c>
-      <c r="N10">
-        <v>21.081484</v>
-      </c>
-      <c r="O10">
-        <v>0.3656151058474875</v>
-      </c>
-      <c r="P10">
-        <v>0.3656151058474875</v>
-      </c>
-      <c r="Q10">
-        <v>1.336805009085333</v>
-      </c>
-      <c r="R10">
-        <v>12.031245081768</v>
-      </c>
-      <c r="S10">
-        <v>0.0397370745005373</v>
-      </c>
-      <c r="T10">
-        <v>0.0397370745005373</v>
+        <v>0.04059434924350812</v>
       </c>
     </row>
   </sheetData>
